--- a/results/mp/logistic/corona/confidence/210/desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,36 +64,27 @@
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -94,7 +97,7 @@
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
+    <t>co</t>
   </si>
   <si>
     <t>19</t>
@@ -103,178 +106,187 @@
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
+    <t>a</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -632,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8321917808219178</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C3">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D3">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7941176470588235</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -801,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -819,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7666666666666667</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -869,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9416666666666667</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,16 +934,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.8903394255874674</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7105263157894737</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8955613577023499</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7027027027027027</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8936170212765957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6551724137931034</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5490196078431373</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8846153846153846</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.544973544973545</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8839285714285714</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5116279069767442</v>
+        <v>0.560077519379845</v>
       </c>
       <c r="C13">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="D13">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8679245283018868</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4406779661016949</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.8661971830985915</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4285714285714285</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2933333333333333</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.8604651162790697</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2751677852348993</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8448275862068966</v>
+        <v>0.85</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2638888888888889</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C18">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.84375</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1349206349206349</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.84375</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L19">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.09919571045576407</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>336</v>
+        <v>212</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.8205128205128205</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.07333333333333333</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>0.8148148148148148</v>
@@ -1651,37 +1663,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01269393511988716</v>
+        <v>0.01944264419961115</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E22">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="F22">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2100</v>
+        <v>3026</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.7936507936507936</v>
+        <v>0.8125</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,37 +1713,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01267427122940431</v>
+        <v>0.01695713612812058</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="F23">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2337</v>
+        <v>2087</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1751,37 +1763,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009041007426541814</v>
+        <v>0.01311336717428088</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E24">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="F24">
-        <v>0.74</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3069</v>
+        <v>2333</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,37 +1813,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007452441655226515</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="F25">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>5061</v>
+        <v>2266</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.7714285714285715</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,37 +1863,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005824790307548928</v>
+        <v>0.009028459273797841</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="E26">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="F26">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4267</v>
+        <v>5049</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,21 +1905,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.006729200652528548</v>
+      </c>
+      <c r="C27">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>125</v>
+      </c>
+      <c r="E27">
+        <v>0.74</v>
+      </c>
+      <c r="F27">
+        <v>0.26</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4871</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.7441176470588236</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L27">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1919,21 +1955,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.006335128286347799</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3137</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.7322175732217573</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L28">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="M28">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1945,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.725</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1968,50 +2028,50 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.7235494880546075</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L30">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.7058823529411765</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2023,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.7</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2049,21 +2109,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.6914893617021277</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L33">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2075,21 +2135,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.651685393258427</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L34">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2101,21 +2161,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.6363636363636364</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2127,21 +2187,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.6307692307692307</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L36">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2153,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.6285714285714286</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2179,21 +2239,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.5342465753424658</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2205,21 +2265,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.5333333333333333</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2231,21 +2291,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2257,47 +2317,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L41">
         <v>21</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.4406779661016949</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2309,21 +2369,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.4375</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2335,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.06168831168831169</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2361,21 +2421,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>289</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.05301645338208409</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2387,15 +2447,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>518</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.04567307692307692</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L46">
         <v>19</v>
@@ -2413,319 +2473,475 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>397</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.0408673894912427</v>
+        <v>0.05677655677655678</v>
       </c>
       <c r="L47">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1150</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.02131979695431472</v>
+        <v>0.04933110367892977</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N48">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0.16</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>964</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.01654757427604362</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="L49">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N49">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="O49">
-        <v>0.24</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2615</v>
+        <v>960</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.01465863453815261</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L50">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>4907</v>
+        <v>878</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.01446540880503145</v>
+        <v>0.02521640948438088</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="N51">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O51">
-        <v>0.15</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1567</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.01437371663244353</v>
+        <v>0.02391441157960982</v>
       </c>
       <c r="L52">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M52">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N52">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="O52">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2400</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.01287302516091281</v>
+        <v>0.02211538461538462</v>
       </c>
       <c r="L53">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>5061</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K54">
-        <v>0.01255230125523013</v>
+        <v>0.01853717509570824</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="M54">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="N54">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="O54">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2360</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.01023255813953488</v>
+        <v>0.01729106628242075</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N55">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="O55">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2128</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.00973006905210295</v>
+        <v>0.01674340728338217</v>
       </c>
       <c r="L56">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M56">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N56">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="O56">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3155</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K57">
+        <v>0.01487862176977291</v>
+      </c>
+      <c r="L57">
+        <v>19</v>
+      </c>
+      <c r="M57">
         <v>31</v>
       </c>
-      <c r="K57">
-        <v>0.008366256100395073</v>
-      </c>
-      <c r="L57">
-        <v>36</v>
-      </c>
-      <c r="M57">
-        <v>61</v>
-      </c>
       <c r="N57">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="O57">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>4267</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="K58">
-        <v>0.008278867102396514</v>
+        <v>0.01383212826155297</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N58">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O58">
-        <v>0.42</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2276</v>
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59">
+        <v>0.01367454580972846</v>
+      </c>
+      <c r="L59">
+        <v>70</v>
+      </c>
+      <c r="M59">
+        <v>116</v>
+      </c>
+      <c r="N59">
+        <v>0.6</v>
+      </c>
+      <c r="O59">
+        <v>0.4</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K60">
+        <v>0.01159823706796567</v>
+      </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="M60">
+        <v>67</v>
+      </c>
+      <c r="N60">
+        <v>0.75</v>
+      </c>
+      <c r="O60">
+        <v>0.25</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61">
+        <v>0.0102278010227801</v>
+      </c>
+      <c r="L61">
+        <v>22</v>
+      </c>
+      <c r="M61">
+        <v>29</v>
+      </c>
+      <c r="N61">
+        <v>0.76</v>
+      </c>
+      <c r="O61">
+        <v>0.24</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62">
+        <v>0.009492168960607499</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <v>56</v>
+      </c>
+      <c r="N62">
+        <v>0.36</v>
+      </c>
+      <c r="O62">
+        <v>0.64</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>0.009182334936598164</v>
+      </c>
+      <c r="L63">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>43</v>
+      </c>
+      <c r="N63">
+        <v>0.49</v>
+      </c>
+      <c r="O63">
+        <v>0.51</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64">
+        <v>0.006892024942566459</v>
+      </c>
+      <c r="L64">
+        <v>21</v>
+      </c>
+      <c r="M64">
+        <v>81</v>
+      </c>
+      <c r="N64">
+        <v>0.26</v>
+      </c>
+      <c r="O64">
+        <v>0.74</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3026</v>
       </c>
     </row>
   </sheetData>
